--- a/terreno condizioni.xlsx
+++ b/terreno condizioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaeta\Desktop\uni\websemantico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043584F-CF7D-4FAD-AF54-85C119181428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9A76A-8048-4998-91ED-CDADC4904684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5460" windowWidth="22095" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t>altitudine</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>ben drenato</t>
-  </si>
-  <si>
-    <t>ottimo drenaggio</t>
   </si>
   <si>
     <t>sassoso</t>
@@ -390,15 +387,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -431,8 +434,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1400</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2600</v>
       </c>
@@ -460,13 +469,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -477,13 +489,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -497,10 +512,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -508,16 +526,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -528,13 +549,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1500</v>
       </c>
@@ -545,13 +569,16 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -562,13 +589,16 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>600</v>
       </c>
@@ -584,8 +614,11 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -601,8 +634,11 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1400</v>
       </c>
@@ -613,10 +649,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
